--- a/Data/Roman.xlsx
+++ b/Data/Roman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76ce5025e9f0aa94/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\IdeaProjects\JavaBatch14\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000C2BF0-B7C2-4F90-964B-D5C7849C7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB12049-C01E-44C8-A901-BC7546256355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{F7CA81DC-A081-4E1F-B35D-B3409A7CE42B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Cyrus</t>
+  </si>
+  <si>
+    <t>Adrina</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>bob</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E93283-2065-47B2-8A2B-5613F2746AE9}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,6 +467,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>7493</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>874</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
